--- a/src/data/3_comp.xlsx
+++ b/src/data/3_comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Desktop\sns_modeling\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A28C2E-9326-40E8-816C-E6BB8A3270EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEAAC8E-D2F9-4FB9-B376-A3C2926CCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="5260" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>F0</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>P_abs</t>
-  </si>
-  <si>
-    <t>Tf</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -49,21 +37,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>zf</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>density</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Hvap</t>
-  </si>
-  <si>
     <t>Benzene</t>
   </si>
   <si>
@@ -77,6 +50,33 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>F0 [kmol/hr]</t>
+  </si>
+  <si>
+    <t>Temp [C]</t>
+  </si>
+  <si>
+    <t>Pressure [bar]</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>Inlet Mole Frac</t>
+  </si>
+  <si>
+    <t>Relative Volatility</t>
+  </si>
+  <si>
+    <t>Liquid Density [kg/m^3]</t>
+  </si>
+  <si>
+    <t>Molecular Weight</t>
+  </si>
+  <si>
+    <t>Enthalpy of Vaporization [kJ/mol]</t>
   </si>
 </sst>
 </file>
@@ -150,8 +150,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,23 +436,29 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,48 +486,48 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -541,10 +547,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.4</v>
@@ -564,10 +570,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>0.1</v>
